--- a/src/main/resources/files/student_sheet/marked/answer_sheet.xlsx
+++ b/src/main/resources/files/student_sheet/marked/answer_sheet.xlsx
@@ -27,6 +27,241 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="D41" authorId="0">
+      <text>
+        <t>Partially Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0">
+      <text>
+        <t>Partially Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="F41" authorId="0">
+      <text>
+        <t>Partially Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E42" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="D43" authorId="0">
+      <text>
+        <t>Incorrect Answer given</t>
+      </text>
+    </comment>
+    <comment ref="G62" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E41" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="D42" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="G61" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="G42" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="F43" authorId="0">
+      <text>
+        <t>Incorrect Answer given</t>
+      </text>
+    </comment>
+    <comment ref="H63" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0">
+      <text>
+        <t>Partially Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="G41" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="F42" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E43" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="H62" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="G43" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E48" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E47" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="G48" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="G47" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E49" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="H49" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="G49" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <t>Partially Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <t>Partially Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <t>Partially Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <t>Partially Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <t>Partially Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="H52" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0">
+      <text>
+        <t>Partially Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="H54" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0">
+      <text>
+        <t>Partially Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="H53" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E15" authorId="0">
+      <text>
+        <t>Incorrect Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0">
+      <text>
+        <t>Partially Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="H58" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0">
+      <text>
+        <t>Partially Correct Answer given</t>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0">
+      <text>
+        <t>Correct Answer given</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -186,7 +421,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="144">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +480,683 @@
       <name val="Liberation Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="45"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,12 +1189,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="10"/>
+        <fgColor indexed="45"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="45"/>
       </patternFill>
     </fill>
     <fill>
@@ -293,28 +1203,34 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="mediumGray">
         <fgColor indexed="42"/>
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor indexed="42"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
-        <fgColor indexed="48"/>
+        <fgColor indexed="40"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="48"/>
+        <fgColor indexed="40"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-        <bgColor indexed="48"/>
+        <fgColor indexed="40"/>
+        <bgColor indexed="40"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -565,6 +1481,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="45"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="45"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color indexed="45"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="45"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="48"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="48"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color indexed="48"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="48"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -847,141 +1823,141 @@
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="45" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="49" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="50" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="51" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="52" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="53" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="54" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="55" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="56" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="57" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="58" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="59" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="60" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="61" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="62" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="63" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="64" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="65" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="66" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="67" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="68" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="69" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="70" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="71" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="72" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="73" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="74" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="75" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="76" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="77" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="78" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="79" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="80" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="81" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="82" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="83" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="84" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="85" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="86" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="87" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="88" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="89" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="90" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="91" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="92" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="93" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="94" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="95" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="97" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="98" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="99" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="100" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="101" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="102" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="103" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="104" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="105" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="106" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="107" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="108" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="109" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="110" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="111" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="112" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="113" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="114" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="115" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="116" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="117" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="118" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="119" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="120" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="121" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="122" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="123" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="124" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="125" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="126" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="127" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="128" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="129" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="130" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="131" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="132" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="133" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="134" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="135" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="136" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="137" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="138" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="139" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="140" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="141" fillId="7" borderId="27" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="142" fillId="10" borderId="30" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="143" fillId="13" borderId="33" xfId="0" applyFill="true" applyFont="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1006,6 +1982,1227 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="152400" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2216,6 +4413,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
